--- a/docs/Analizador Sintactico/Sint_Ascendente.xlsx
+++ b/docs/Analizador Sintactico/Sint_Ascendente.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/f_bpazos_alumnos_upm_es/Documents/Universidad/3º/Procesadores de Lenguajes/Practica/ProcesadoresLenguajes/docs/Analizador Sintactico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{6F72D33F-E675-4999-A418-37CDC9331903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57D18359-518B-4AD6-A778-A55710352368}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{6F72D33F-E675-4999-A418-37CDC9331903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A64C46CE-10DA-4C09-A805-D0F00311B45C}"/>
   <bookViews>
-    <workbookView xWindow="38370" yWindow="3030" windowWidth="9195" windowHeight="10650" activeTab="1" xr2:uid="{1376CB48-AB9C-46B4-BBF4-63DAFE2B8C65}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1376CB48-AB9C-46B4-BBF4-63DAFE2B8C65}"/>
   </bookViews>
   <sheets>
     <sheet name="First &amp; Follow" sheetId="2" r:id="rId1"/>
@@ -4222,7 +4222,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4593,8 +4595,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>54</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:col>52</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
@@ -4983,337 +4985,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9BA02-4E3A-4085-98E9-987450E799A2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F23"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="66.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="130" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5321,12 +5257,11 @@
       <c r="G46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="66" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5334,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91E0C64-4B0D-4801-BEF2-0C4616315A90}">
   <dimension ref="A1:D291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C123" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5370,7 +5305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>168</v>
@@ -5378,7 +5313,7 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5392,11 +5327,11 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -5406,11 +5341,11 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="11" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -5420,7 +5355,7 @@
       <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="11" t="s">
         <v>523</v>
       </c>
     </row>
@@ -5434,7 +5369,7 @@
       <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="11" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5448,7 +5383,7 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5462,7 +5397,7 @@
       <c r="C9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="11" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5476,7 +5411,7 @@
       <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5490,7 +5425,7 @@
       <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5504,7 +5439,7 @@
       <c r="C12" s="4">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="11" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5518,7 +5453,7 @@
       <c r="C13" s="4">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="11" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5532,11 +5467,11 @@
       <c r="C14" s="4">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -5546,7 +5481,7 @@
       <c r="C15" s="4">
         <v>12</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="11" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5560,7 +5495,7 @@
       <c r="C16" s="4">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="11" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5574,7 +5509,7 @@
       <c r="C17" s="4">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="11" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5588,7 +5523,7 @@
       <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -5600,7 +5535,7 @@
       <c r="C19" s="4">
         <v>3</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -5612,7 +5547,7 @@
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -5624,7 +5559,7 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5636,7 +5571,7 @@
       <c r="C22" s="4">
         <v>6</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -5648,7 +5583,7 @@
       <c r="C23" s="4">
         <v>7</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -5660,7 +5595,7 @@
       <c r="C24" s="4">
         <v>8</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -5672,7 +5607,7 @@
       <c r="C25" s="4">
         <v>9</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -5684,7 +5619,7 @@
       <c r="C26" s="4">
         <v>10</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -5696,7 +5631,7 @@
       <c r="C27" s="4">
         <v>11</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -5708,7 +5643,7 @@
       <c r="C28" s="4">
         <v>12</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -5720,7 +5655,7 @@
       <c r="C29" s="4">
         <v>13</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -5732,7 +5667,7 @@
       <c r="C30" s="4">
         <v>15</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="11" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5746,7 +5681,7 @@
       <c r="C31" s="4">
         <v>2</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -5758,7 +5693,7 @@
       <c r="C32" s="4">
         <v>3</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -5770,7 +5705,7 @@
       <c r="C33" s="4">
         <v>4</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -5782,7 +5717,7 @@
       <c r="C34" s="4">
         <v>5</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -5794,7 +5729,7 @@
       <c r="C35" s="4">
         <v>6</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -5806,7 +5741,7 @@
       <c r="C36" s="4">
         <v>7</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -5818,7 +5753,7 @@
       <c r="C37" s="4">
         <v>8</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -5830,7 +5765,7 @@
       <c r="C38" s="4">
         <v>9</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -5842,7 +5777,7 @@
       <c r="C39" s="4">
         <v>10</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -5854,7 +5789,7 @@
       <c r="C40" s="4">
         <v>11</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -5866,7 +5801,7 @@
       <c r="C41" s="4">
         <v>12</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -5878,9 +5813,9 @@
       <c r="C42" s="4">
         <v>13</v>
       </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>200</v>
       </c>
@@ -5890,7 +5825,7 @@
       <c r="C43" s="4">
         <v>16</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="11" t="s">
         <v>323</v>
       </c>
     </row>
@@ -5904,7 +5839,7 @@
       <c r="C44" s="4">
         <v>17</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="11" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5918,7 +5853,7 @@
       <c r="C45" s="4">
         <v>18</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="11" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5932,7 +5867,7 @@
       <c r="C46" s="4">
         <v>19</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="11" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5946,11 +5881,11 @@
       <c r="C47" s="4">
         <v>20</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>205</v>
       </c>
@@ -5960,7 +5895,7 @@
       <c r="C48" s="4">
         <v>21</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="11" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5974,7 +5909,7 @@
       <c r="C49" s="4">
         <v>22</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="11" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5988,11 +5923,11 @@
       <c r="C50" s="4">
         <v>23</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>209</v>
       </c>
@@ -6002,11 +5937,11 @@
       <c r="C51" s="4">
         <v>24</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="11" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>210</v>
       </c>
@@ -6016,11 +5951,11 @@
       <c r="C52" s="4">
         <v>25</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="11" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>211</v>
       </c>
@@ -6030,11 +5965,11 @@
       <c r="C53" s="4">
         <v>26</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>212</v>
       </c>
@@ -6044,7 +5979,7 @@
       <c r="C54" s="4">
         <v>27</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="11" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6058,7 +5993,7 @@
       <c r="C55" s="4">
         <v>28</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="11" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6072,7 +6007,7 @@
       <c r="C56" s="4">
         <v>29</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="11" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6086,7 +6021,7 @@
       <c r="C57" s="4">
         <v>30</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="11" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6100,7 +6035,7 @@
       <c r="C58" s="4">
         <v>31</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="11" t="s">
         <v>217</v>
       </c>
     </row>
@@ -6114,7 +6049,7 @@
       <c r="C59" s="4">
         <v>32</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="11" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6128,7 +6063,7 @@
       <c r="C60" s="4">
         <v>33</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="11" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6142,7 +6077,7 @@
       <c r="C61" s="4">
         <v>34</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="11" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6156,11 +6091,11 @@
       <c r="C62" s="4">
         <v>35</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="11" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>221</v>
       </c>
@@ -6170,7 +6105,7 @@
       <c r="C63" s="4">
         <v>36</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="11" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6184,7 +6119,7 @@
       <c r="C64" s="4">
         <v>37</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="11" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6198,7 +6133,7 @@
       <c r="C65" s="4">
         <v>38</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6212,7 +6147,7 @@
       <c r="C66" s="4">
         <v>39</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="11" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6226,7 +6161,7 @@
       <c r="C67" s="4">
         <v>40</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="11" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6240,7 +6175,7 @@
       <c r="C68" s="4">
         <v>18</v>
       </c>
-      <c r="D68" s="3"/>
+      <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
@@ -6252,7 +6187,7 @@
       <c r="C69" s="4">
         <v>19</v>
       </c>
-      <c r="D69" s="3"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -6264,7 +6199,7 @@
       <c r="C70" s="4">
         <v>20</v>
       </c>
-      <c r="D70" s="3"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -6276,7 +6211,7 @@
       <c r="C71" s="4">
         <v>41</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6290,7 +6225,7 @@
       <c r="C72" s="4">
         <v>31</v>
       </c>
-      <c r="D72" s="3"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -6302,7 +6237,7 @@
       <c r="C73" s="4">
         <v>32</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -6314,7 +6249,7 @@
       <c r="C74" s="4">
         <v>33</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -6326,7 +6261,7 @@
       <c r="C75" s="4">
         <v>34</v>
       </c>
-      <c r="D75" s="3"/>
+      <c r="D75" s="11"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -6338,7 +6273,7 @@
       <c r="C76" s="4">
         <v>35</v>
       </c>
-      <c r="D76" s="3"/>
+      <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -6350,7 +6285,7 @@
       <c r="C77" s="4">
         <v>36</v>
       </c>
-      <c r="D77" s="3"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -6362,7 +6297,7 @@
       <c r="C78" s="4">
         <v>37</v>
       </c>
-      <c r="D78" s="3"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -6374,7 +6309,7 @@
       <c r="C79" s="4">
         <v>38</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -6386,7 +6321,7 @@
       <c r="C80" s="4">
         <v>42</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="11" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6400,11 +6335,11 @@
       <c r="C81" s="4">
         <v>43</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="11" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>112</v>
       </c>
@@ -6414,7 +6349,7 @@
       <c r="C82" s="4">
         <v>44</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="11" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6428,7 +6363,7 @@
       <c r="C83" s="4">
         <v>4</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -6440,7 +6375,7 @@
       <c r="C84" s="4">
         <v>5</v>
       </c>
-      <c r="D84" s="3"/>
+      <c r="D84" s="11"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -6452,7 +6387,7 @@
       <c r="C85" s="4">
         <v>6</v>
       </c>
-      <c r="D85" s="3"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -6464,7 +6399,7 @@
       <c r="C86" s="4">
         <v>7</v>
       </c>
-      <c r="D86" s="3"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
@@ -6476,7 +6411,7 @@
       <c r="C87" s="4">
         <v>9</v>
       </c>
-      <c r="D87" s="3"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -6488,7 +6423,7 @@
       <c r="C88" s="4">
         <v>10</v>
       </c>
-      <c r="D88" s="3"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -6500,7 +6435,7 @@
       <c r="C89" s="4">
         <v>11</v>
       </c>
-      <c r="D89" s="3"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
@@ -6512,7 +6447,7 @@
       <c r="C90" s="4">
         <v>12</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
@@ -6524,11 +6459,11 @@
       <c r="C91" s="4">
         <v>45</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>228</v>
       </c>
@@ -6538,7 +6473,7 @@
       <c r="C92" s="4">
         <v>46</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="11" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6552,7 +6487,7 @@
       <c r="C93" s="4">
         <v>47</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6566,7 +6501,7 @@
       <c r="C94" s="4">
         <v>48</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="11" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6580,7 +6515,7 @@
       <c r="C95" s="4">
         <v>18</v>
       </c>
-      <c r="D95" s="3"/>
+      <c r="D95" s="11"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
@@ -6592,7 +6527,7 @@
       <c r="C96" s="4">
         <v>19</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
@@ -6604,7 +6539,7 @@
       <c r="C97" s="4">
         <v>20</v>
       </c>
-      <c r="D97" s="3"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -6616,7 +6551,7 @@
       <c r="C98" s="4">
         <v>49</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="11" t="s">
         <v>346</v>
       </c>
     </row>
@@ -6630,7 +6565,7 @@
       <c r="C99" s="4">
         <v>31</v>
       </c>
-      <c r="D99" s="3"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -6642,7 +6577,7 @@
       <c r="C100" s="4">
         <v>32</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -6654,7 +6589,7 @@
       <c r="C101" s="4">
         <v>33</v>
       </c>
-      <c r="D101" s="3"/>
+      <c r="D101" s="11"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
@@ -6666,7 +6601,7 @@
       <c r="C102" s="4">
         <v>34</v>
       </c>
-      <c r="D102" s="3"/>
+      <c r="D102" s="11"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -6678,7 +6613,7 @@
       <c r="C103" s="4">
         <v>35</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="11"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -6690,7 +6625,7 @@
       <c r="C104" s="4">
         <v>36</v>
       </c>
-      <c r="D104" s="3"/>
+      <c r="D104" s="11"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
@@ -6702,7 +6637,7 @@
       <c r="C105" s="4">
         <v>37</v>
       </c>
-      <c r="D105" s="3"/>
+      <c r="D105" s="11"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
@@ -6714,7 +6649,7 @@
       <c r="C106" s="4">
         <v>38</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="11"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -6726,7 +6661,7 @@
       <c r="C107" s="4">
         <v>50</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="11" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6740,7 +6675,7 @@
       <c r="C108" s="4">
         <v>51</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="11" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6754,7 +6689,7 @@
       <c r="C109" s="4">
         <v>31</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -6766,7 +6701,7 @@
       <c r="C110" s="4">
         <v>32</v>
       </c>
-      <c r="D110" s="3"/>
+      <c r="D110" s="11"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
@@ -6778,7 +6713,7 @@
       <c r="C111" s="4">
         <v>33</v>
       </c>
-      <c r="D111" s="3"/>
+      <c r="D111" s="11"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
@@ -6790,7 +6725,7 @@
       <c r="C112" s="4">
         <v>34</v>
       </c>
-      <c r="D112" s="3"/>
+      <c r="D112" s="11"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
@@ -6802,7 +6737,7 @@
       <c r="C113" s="4">
         <v>35</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113" s="11"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
@@ -6814,7 +6749,7 @@
       <c r="C114" s="4">
         <v>36</v>
       </c>
-      <c r="D114" s="3"/>
+      <c r="D114" s="11"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
@@ -6826,7 +6761,7 @@
       <c r="C115" s="4">
         <v>37</v>
       </c>
-      <c r="D115" s="3"/>
+      <c r="D115" s="11"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -6838,7 +6773,7 @@
       <c r="C116" s="4">
         <v>38</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="11"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
@@ -6850,7 +6785,7 @@
       <c r="C117" s="4">
         <v>52</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="11" t="s">
         <v>352</v>
       </c>
     </row>
@@ -6864,7 +6799,7 @@
       <c r="C118" s="4">
         <v>51</v>
       </c>
-      <c r="D118" s="3"/>
+      <c r="D118" s="11"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -6876,7 +6811,7 @@
       <c r="C119" s="4">
         <v>31</v>
       </c>
-      <c r="D119" s="3"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
@@ -6888,7 +6823,7 @@
       <c r="C120" s="4">
         <v>32</v>
       </c>
-      <c r="D120" s="3"/>
+      <c r="D120" s="11"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
@@ -6900,7 +6835,7 @@
       <c r="C121" s="4">
         <v>33</v>
       </c>
-      <c r="D121" s="3"/>
+      <c r="D121" s="11"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
@@ -6912,7 +6847,7 @@
       <c r="C122" s="4">
         <v>34</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D122" s="11"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -6924,7 +6859,7 @@
       <c r="C123" s="4">
         <v>35</v>
       </c>
-      <c r="D123" s="3"/>
+      <c r="D123" s="11"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -6936,7 +6871,7 @@
       <c r="C124" s="4">
         <v>36</v>
       </c>
-      <c r="D124" s="3"/>
+      <c r="D124" s="11"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
@@ -6948,7 +6883,7 @@
       <c r="C125" s="4">
         <v>37</v>
       </c>
-      <c r="D125" s="3"/>
+      <c r="D125" s="11"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
@@ -6960,7 +6895,7 @@
       <c r="C126" s="4">
         <v>38</v>
       </c>
-      <c r="D126" s="3"/>
+      <c r="D126" s="11"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -6972,7 +6907,7 @@
       <c r="C127" s="4">
         <v>53</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6986,7 +6921,7 @@
       <c r="C128" s="4">
         <v>31</v>
       </c>
-      <c r="D128" s="3"/>
+      <c r="D128" s="11"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
@@ -6998,7 +6933,7 @@
       <c r="C129" s="4">
         <v>32</v>
       </c>
-      <c r="D129" s="3"/>
+      <c r="D129" s="11"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
@@ -7010,7 +6945,7 @@
       <c r="C130" s="4">
         <v>33</v>
       </c>
-      <c r="D130" s="3"/>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
@@ -7022,7 +6957,7 @@
       <c r="C131" s="4">
         <v>34</v>
       </c>
-      <c r="D131" s="3"/>
+      <c r="D131" s="11"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
@@ -7034,7 +6969,7 @@
       <c r="C132" s="4">
         <v>35</v>
       </c>
-      <c r="D132" s="3"/>
+      <c r="D132" s="11"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
@@ -7046,7 +6981,7 @@
       <c r="C133" s="4">
         <v>36</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="11"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
@@ -7058,7 +6993,7 @@
       <c r="C134" s="4">
         <v>37</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="11"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
@@ -7070,7 +7005,7 @@
       <c r="C135" s="4">
         <v>38</v>
       </c>
-      <c r="D135" s="3"/>
+      <c r="D135" s="11"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
@@ -7082,7 +7017,7 @@
       <c r="C136" s="4">
         <v>54</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="11" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7096,11 +7031,11 @@
       <c r="C137" s="4">
         <v>55</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>240</v>
       </c>
@@ -7110,11 +7045,11 @@
       <c r="C138" s="4">
         <v>56</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>242</v>
       </c>
@@ -7124,11 +7059,11 @@
       <c r="C139" s="4">
         <v>57</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>244</v>
       </c>
@@ -7138,11 +7073,11 @@
       <c r="C140" s="4">
         <v>58</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="11" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>246</v>
       </c>
@@ -7152,7 +7087,7 @@
       <c r="C141" s="4">
         <v>59</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="11" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7166,7 +7101,7 @@
       <c r="C142" s="4">
         <v>60</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="11" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7180,11 +7115,11 @@
       <c r="C143" s="4">
         <v>61</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>252</v>
       </c>
@@ -7194,7 +7129,7 @@
       <c r="C144" s="4">
         <v>62</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="11" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7208,7 +7143,7 @@
       <c r="C145" s="4">
         <v>63</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="11" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7222,7 +7157,7 @@
       <c r="C146" s="4">
         <v>31</v>
       </c>
-      <c r="D146" s="3"/>
+      <c r="D146" s="11"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
@@ -7234,7 +7169,7 @@
       <c r="C147" s="4">
         <v>32</v>
       </c>
-      <c r="D147" s="3"/>
+      <c r="D147" s="11"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
@@ -7246,7 +7181,7 @@
       <c r="C148" s="4">
         <v>33</v>
       </c>
-      <c r="D148" s="3"/>
+      <c r="D148" s="11"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
@@ -7258,7 +7193,7 @@
       <c r="C149" s="4">
         <v>34</v>
       </c>
-      <c r="D149" s="3"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
@@ -7270,7 +7205,7 @@
       <c r="C150" s="4">
         <v>35</v>
       </c>
-      <c r="D150" s="3"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
@@ -7282,7 +7217,7 @@
       <c r="C151" s="4">
         <v>36</v>
       </c>
-      <c r="D151" s="3"/>
+      <c r="D151" s="11"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
@@ -7294,7 +7229,7 @@
       <c r="C152" s="4">
         <v>37</v>
       </c>
-      <c r="D152" s="3"/>
+      <c r="D152" s="11"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
@@ -7306,7 +7241,7 @@
       <c r="C153" s="4">
         <v>38</v>
       </c>
-      <c r="D153" s="3"/>
+      <c r="D153" s="11"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
@@ -7318,11 +7253,11 @@
       <c r="C154" s="4">
         <v>64</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="11" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>255</v>
       </c>
@@ -7332,7 +7267,7 @@
       <c r="C155" s="4">
         <v>65</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="11" t="s">
         <v>371</v>
       </c>
     </row>
@@ -7346,7 +7281,7 @@
       <c r="C156" s="4">
         <v>56</v>
       </c>
-      <c r="D156" s="3"/>
+      <c r="D156" s="11"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
@@ -7358,7 +7293,7 @@
       <c r="C157" s="4">
         <v>66</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="11" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7372,7 +7307,7 @@
       <c r="C158" s="4">
         <v>67</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="11" t="s">
         <v>531</v>
       </c>
     </row>
@@ -7386,7 +7321,7 @@
       <c r="C159" s="4">
         <v>68</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="11" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7400,7 +7335,7 @@
       <c r="C160" s="4">
         <v>44</v>
       </c>
-      <c r="D160" s="3"/>
+      <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
@@ -7412,7 +7347,7 @@
       <c r="C161" s="4">
         <v>4</v>
       </c>
-      <c r="D161" s="3"/>
+      <c r="D161" s="11"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
@@ -7424,7 +7359,7 @@
       <c r="C162" s="4">
         <v>5</v>
       </c>
-      <c r="D162" s="3"/>
+      <c r="D162" s="11"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
@@ -7436,7 +7371,7 @@
       <c r="C163" s="4">
         <v>6</v>
       </c>
-      <c r="D163" s="3"/>
+      <c r="D163" s="11"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
@@ -7448,7 +7383,7 @@
       <c r="C164" s="4">
         <v>7</v>
       </c>
-      <c r="D164" s="3"/>
+      <c r="D164" s="11"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
@@ -7460,7 +7395,7 @@
       <c r="C165" s="4">
         <v>9</v>
       </c>
-      <c r="D165" s="3"/>
+      <c r="D165" s="11"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
@@ -7472,7 +7407,7 @@
       <c r="C166" s="4">
         <v>10</v>
       </c>
-      <c r="D166" s="3"/>
+      <c r="D166" s="11"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
@@ -7484,7 +7419,7 @@
       <c r="C167" s="4">
         <v>11</v>
       </c>
-      <c r="D167" s="3"/>
+      <c r="D167" s="11"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
@@ -7496,7 +7431,7 @@
       <c r="C168" s="4">
         <v>12</v>
       </c>
-      <c r="D168" s="3"/>
+      <c r="D168" s="11"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
@@ -7508,7 +7443,7 @@
       <c r="C169" s="4">
         <v>69</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="11" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7522,7 +7457,7 @@
       <c r="C170" s="4">
         <v>44</v>
       </c>
-      <c r="D170" s="3"/>
+      <c r="D170" s="11"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
@@ -7534,7 +7469,7 @@
       <c r="C171" s="4">
         <v>4</v>
       </c>
-      <c r="D171" s="3"/>
+      <c r="D171" s="11"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
@@ -7546,7 +7481,7 @@
       <c r="C172" s="4">
         <v>5</v>
       </c>
-      <c r="D172" s="3"/>
+      <c r="D172" s="11"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
@@ -7558,7 +7493,7 @@
       <c r="C173" s="4">
         <v>6</v>
       </c>
-      <c r="D173" s="3"/>
+      <c r="D173" s="11"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
@@ -7570,7 +7505,7 @@
       <c r="C174" s="4">
         <v>7</v>
       </c>
-      <c r="D174" s="3"/>
+      <c r="D174" s="11"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
@@ -7582,7 +7517,7 @@
       <c r="C175" s="4">
         <v>9</v>
       </c>
-      <c r="D175" s="3"/>
+      <c r="D175" s="11"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
@@ -7594,7 +7529,7 @@
       <c r="C176" s="4">
         <v>10</v>
       </c>
-      <c r="D176" s="3"/>
+      <c r="D176" s="11"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
@@ -7606,7 +7541,7 @@
       <c r="C177" s="4">
         <v>11</v>
       </c>
-      <c r="D177" s="3"/>
+      <c r="D177" s="11"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
@@ -7618,7 +7553,7 @@
       <c r="C178" s="4">
         <v>12</v>
       </c>
-      <c r="D178" s="3"/>
+      <c r="D178" s="11"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
@@ -7630,7 +7565,7 @@
       <c r="C179" s="4">
         <v>70</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="11" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7644,7 +7579,7 @@
       <c r="C180" s="4">
         <v>71</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="11" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7658,7 +7593,7 @@
       <c r="C181" s="4">
         <v>72</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="11" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7672,7 +7607,7 @@
       <c r="C182" s="4">
         <v>56</v>
       </c>
-      <c r="D182" s="3"/>
+      <c r="D182" s="11"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
@@ -7684,7 +7619,7 @@
       <c r="C183" s="4">
         <v>73</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="11" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7698,7 +7633,7 @@
       <c r="C184" s="4">
         <v>74</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="11" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7712,9 +7647,9 @@
       <c r="C185" s="4">
         <v>56</v>
       </c>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="11"/>
+    </row>
+    <row r="186" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>559</v>
       </c>
@@ -7724,7 +7659,7 @@
       <c r="C186" s="4">
         <v>75</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="11" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7738,7 +7673,7 @@
       <c r="C187" s="4">
         <v>76</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="11" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7752,7 +7687,7 @@
       <c r="C188" s="4">
         <v>77</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="11" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7766,7 +7701,7 @@
       <c r="C189" s="4">
         <v>56</v>
       </c>
-      <c r="D189" s="3"/>
+      <c r="D189" s="11"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
@@ -7778,7 +7713,7 @@
       <c r="C190" s="4">
         <v>78</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="11" t="s">
         <v>379</v>
       </c>
     </row>
@@ -7792,7 +7727,7 @@
       <c r="C191" s="4">
         <v>79</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="11" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7806,7 +7741,7 @@
       <c r="C192" s="4">
         <v>32</v>
       </c>
-      <c r="D192" s="3"/>
+      <c r="D192" s="11"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
@@ -7818,7 +7753,7 @@
       <c r="C193" s="4">
         <v>33</v>
       </c>
-      <c r="D193" s="3"/>
+      <c r="D193" s="11"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
@@ -7830,7 +7765,7 @@
       <c r="C194" s="4">
         <v>34</v>
       </c>
-      <c r="D194" s="3"/>
+      <c r="D194" s="11"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
@@ -7842,7 +7777,7 @@
       <c r="C195" s="4">
         <v>35</v>
       </c>
-      <c r="D195" s="3"/>
+      <c r="D195" s="11"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
@@ -7854,7 +7789,7 @@
       <c r="C196" s="4">
         <v>36</v>
       </c>
-      <c r="D196" s="3"/>
+      <c r="D196" s="11"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
@@ -7866,7 +7801,7 @@
       <c r="C197" s="4">
         <v>37</v>
       </c>
-      <c r="D197" s="3"/>
+      <c r="D197" s="11"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
@@ -7878,7 +7813,7 @@
       <c r="C198" s="4">
         <v>38</v>
       </c>
-      <c r="D198" s="3"/>
+      <c r="D198" s="11"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -7890,7 +7825,7 @@
       <c r="C199" s="4">
         <v>80</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="11" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7904,7 +7839,7 @@
       <c r="C200" s="4">
         <v>33</v>
       </c>
-      <c r="D200" s="3"/>
+      <c r="D200" s="11"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
@@ -7916,7 +7851,7 @@
       <c r="C201" s="4">
         <v>34</v>
       </c>
-      <c r="D201" s="3"/>
+      <c r="D201" s="11"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
@@ -7928,7 +7863,7 @@
       <c r="C202" s="4">
         <v>35</v>
       </c>
-      <c r="D202" s="3"/>
+      <c r="D202" s="11"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
@@ -7940,7 +7875,7 @@
       <c r="C203" s="4">
         <v>36</v>
       </c>
-      <c r="D203" s="3"/>
+      <c r="D203" s="11"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
@@ -7952,7 +7887,7 @@
       <c r="C204" s="4">
         <v>37</v>
       </c>
-      <c r="D204" s="3"/>
+      <c r="D204" s="11"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
@@ -7964,7 +7899,7 @@
       <c r="C205" s="4">
         <v>38</v>
       </c>
-      <c r="D205" s="3"/>
+      <c r="D205" s="11"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
@@ -7976,7 +7911,7 @@
       <c r="C206" s="4">
         <v>81</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="11" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7990,7 +7925,7 @@
       <c r="C207" s="4">
         <v>34</v>
       </c>
-      <c r="D207" s="3"/>
+      <c r="D207" s="11"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
@@ -8002,7 +7937,7 @@
       <c r="C208" s="4">
         <v>35</v>
       </c>
-      <c r="D208" s="3"/>
+      <c r="D208" s="11"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
@@ -8014,7 +7949,7 @@
       <c r="C209" s="4">
         <v>36</v>
       </c>
-      <c r="D209" s="3"/>
+      <c r="D209" s="11"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
@@ -8026,7 +7961,7 @@
       <c r="C210" s="4">
         <v>37</v>
       </c>
-      <c r="D210" s="3"/>
+      <c r="D210" s="11"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -8038,7 +7973,7 @@
       <c r="C211" s="4">
         <v>38</v>
       </c>
-      <c r="D211" s="3"/>
+      <c r="D211" s="11"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
@@ -8050,7 +7985,7 @@
       <c r="C212" s="4">
         <v>82</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="11" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8064,7 +7999,7 @@
       <c r="C213" s="4">
         <v>34</v>
       </c>
-      <c r="D213" s="3"/>
+      <c r="D213" s="11"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
@@ -8076,7 +8011,7 @@
       <c r="C214" s="4">
         <v>35</v>
       </c>
-      <c r="D214" s="3"/>
+      <c r="D214" s="11"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
@@ -8088,7 +8023,7 @@
       <c r="C215" s="4">
         <v>36</v>
       </c>
-      <c r="D215" s="3"/>
+      <c r="D215" s="11"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
@@ -8100,7 +8035,7 @@
       <c r="C216" s="4">
         <v>37</v>
       </c>
-      <c r="D216" s="3"/>
+      <c r="D216" s="11"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
@@ -8112,7 +8047,7 @@
       <c r="C217" s="4">
         <v>38</v>
       </c>
-      <c r="D217" s="3"/>
+      <c r="D217" s="11"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
@@ -8124,7 +8059,7 @@
       <c r="C218" s="4">
         <v>83</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D218" s="11" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8138,7 +8073,7 @@
       <c r="C219" s="4">
         <v>35</v>
       </c>
-      <c r="D219" s="3"/>
+      <c r="D219" s="11"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
@@ -8150,7 +8085,7 @@
       <c r="C220" s="4">
         <v>36</v>
       </c>
-      <c r="D220" s="3"/>
+      <c r="D220" s="11"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
@@ -8162,7 +8097,7 @@
       <c r="C221" s="4">
         <v>37</v>
       </c>
-      <c r="D221" s="3"/>
+      <c r="D221" s="11"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
@@ -8174,7 +8109,7 @@
       <c r="C222" s="4">
         <v>38</v>
       </c>
-      <c r="D222" s="3"/>
+      <c r="D222" s="11"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
@@ -8186,7 +8121,7 @@
       <c r="C223" s="4">
         <v>84</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="11" t="s">
         <v>275</v>
       </c>
     </row>
@@ -8200,7 +8135,7 @@
       <c r="C224" s="4">
         <v>35</v>
       </c>
-      <c r="D224" s="3"/>
+      <c r="D224" s="11"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
@@ -8212,7 +8147,7 @@
       <c r="C225" s="4">
         <v>36</v>
       </c>
-      <c r="D225" s="3"/>
+      <c r="D225" s="11"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
@@ -8224,7 +8159,7 @@
       <c r="C226" s="4">
         <v>37</v>
       </c>
-      <c r="D226" s="3"/>
+      <c r="D226" s="11"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
@@ -8236,7 +8171,7 @@
       <c r="C227" s="4">
         <v>38</v>
       </c>
-      <c r="D227" s="3"/>
+      <c r="D227" s="11"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
@@ -8248,7 +8183,7 @@
       <c r="C228" s="4">
         <v>85</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="11" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8262,7 +8197,7 @@
       <c r="C229" s="4">
         <v>51</v>
       </c>
-      <c r="D229" s="3"/>
+      <c r="D229" s="11"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
@@ -8274,7 +8209,7 @@
       <c r="C230" s="4">
         <v>31</v>
       </c>
-      <c r="D230" s="3"/>
+      <c r="D230" s="11"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
@@ -8286,7 +8221,7 @@
       <c r="C231" s="4">
         <v>32</v>
       </c>
-      <c r="D231" s="3"/>
+      <c r="D231" s="11"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
@@ -8298,7 +8233,7 @@
       <c r="C232" s="4">
         <v>33</v>
       </c>
-      <c r="D232" s="3"/>
+      <c r="D232" s="11"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
@@ -8310,7 +8245,7 @@
       <c r="C233" s="4">
         <v>34</v>
       </c>
-      <c r="D233" s="3"/>
+      <c r="D233" s="11"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
@@ -8322,7 +8257,7 @@
       <c r="C234" s="4">
         <v>35</v>
       </c>
-      <c r="D234" s="3"/>
+      <c r="D234" s="11"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
@@ -8334,7 +8269,7 @@
       <c r="C235" s="4">
         <v>36</v>
       </c>
-      <c r="D235" s="3"/>
+      <c r="D235" s="11"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
@@ -8346,7 +8281,7 @@
       <c r="C236" s="4">
         <v>37</v>
       </c>
-      <c r="D236" s="3"/>
+      <c r="D236" s="11"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
@@ -8358,7 +8293,7 @@
       <c r="C237" s="4">
         <v>38</v>
       </c>
-      <c r="D237" s="3"/>
+      <c r="D237" s="11"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
@@ -8370,7 +8305,7 @@
       <c r="C238" s="4">
         <v>86</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D238" s="11" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8384,7 +8319,7 @@
       <c r="C239" s="4">
         <v>56</v>
       </c>
-      <c r="D239" s="3"/>
+      <c r="D239" s="11"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
@@ -8396,7 +8331,7 @@
       <c r="C240" s="4">
         <v>87</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D240" s="11" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8410,7 +8345,7 @@
       <c r="C241" s="4">
         <v>9</v>
       </c>
-      <c r="D241" s="3"/>
+      <c r="D241" s="11"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
@@ -8422,7 +8357,7 @@
       <c r="C242" s="4">
         <v>10</v>
       </c>
-      <c r="D242" s="3"/>
+      <c r="D242" s="11"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
@@ -8434,7 +8369,7 @@
       <c r="C243" s="4">
         <v>11</v>
       </c>
-      <c r="D243" s="3"/>
+      <c r="D243" s="11"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
@@ -8446,7 +8381,7 @@
       <c r="C244" s="4">
         <v>12</v>
       </c>
-      <c r="D244" s="3"/>
+      <c r="D244" s="11"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
@@ -8458,7 +8393,7 @@
       <c r="C245" s="4">
         <v>88</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D245" s="11" t="s">
         <v>584</v>
       </c>
     </row>
@@ -8472,7 +8407,7 @@
       <c r="C246" s="4">
         <v>89</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D246" s="11" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8486,7 +8421,7 @@
       <c r="C247" s="4">
         <v>90</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="11" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8500,7 +8435,7 @@
       <c r="C248" s="4">
         <v>91</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="11" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8514,7 +8449,7 @@
       <c r="C249" s="4">
         <v>92</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="11" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8528,7 +8463,7 @@
       <c r="C250" s="4">
         <v>93</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="11" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8542,7 +8477,7 @@
       <c r="C251" s="4">
         <v>31</v>
       </c>
-      <c r="D251" s="3"/>
+      <c r="D251" s="11"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
@@ -8554,7 +8489,7 @@
       <c r="C252" s="4">
         <v>32</v>
       </c>
-      <c r="D252" s="3"/>
+      <c r="D252" s="11"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
@@ -8566,7 +8501,7 @@
       <c r="C253" s="4">
         <v>33</v>
       </c>
-      <c r="D253" s="3"/>
+      <c r="D253" s="11"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
@@ -8578,7 +8513,7 @@
       <c r="C254" s="4">
         <v>34</v>
       </c>
-      <c r="D254" s="3"/>
+      <c r="D254" s="11"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
@@ -8590,7 +8525,7 @@
       <c r="C255" s="4">
         <v>35</v>
       </c>
-      <c r="D255" s="3"/>
+      <c r="D255" s="11"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
@@ -8602,7 +8537,7 @@
       <c r="C256" s="4">
         <v>36</v>
       </c>
-      <c r="D256" s="3"/>
+      <c r="D256" s="11"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
@@ -8614,7 +8549,7 @@
       <c r="C257" s="4">
         <v>37</v>
       </c>
-      <c r="D257" s="3"/>
+      <c r="D257" s="11"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
@@ -8626,7 +8561,7 @@
       <c r="C258" s="4">
         <v>38</v>
       </c>
-      <c r="D258" s="3"/>
+      <c r="D258" s="11"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
@@ -8638,7 +8573,7 @@
       <c r="C259" s="4">
         <v>94</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="11" t="s">
         <v>284</v>
       </c>
     </row>
@@ -8652,7 +8587,7 @@
       <c r="C260" s="4">
         <v>95</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="11" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8666,7 +8601,7 @@
       <c r="C261" s="4">
         <v>57</v>
       </c>
-      <c r="D261" s="3"/>
+      <c r="D261" s="11"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
@@ -8678,7 +8613,7 @@
       <c r="C262" s="4">
         <v>58</v>
       </c>
-      <c r="D262" s="3"/>
+      <c r="D262" s="11"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
@@ -8690,7 +8625,7 @@
       <c r="C263" s="4">
         <v>59</v>
       </c>
-      <c r="D263" s="3"/>
+      <c r="D263" s="11"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
@@ -8702,7 +8637,7 @@
       <c r="C264" s="4">
         <v>60</v>
       </c>
-      <c r="D264" s="3"/>
+      <c r="D264" s="11"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
@@ -8714,7 +8649,7 @@
       <c r="C265" s="4">
         <v>61</v>
       </c>
-      <c r="D265" s="3"/>
+      <c r="D265" s="11"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
@@ -8726,7 +8661,7 @@
       <c r="C266" s="4">
         <v>60</v>
       </c>
-      <c r="D266" s="3"/>
+      <c r="D266" s="11"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
@@ -8738,7 +8673,7 @@
       <c r="C267" s="4">
         <v>61</v>
       </c>
-      <c r="D267" s="3"/>
+      <c r="D267" s="11"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
@@ -8750,11 +8685,11 @@
       <c r="C268" s="4">
         <v>96</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="11" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>605</v>
       </c>
@@ -8764,7 +8699,7 @@
       <c r="C269" s="4">
         <v>97</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="11" t="s">
         <v>607</v>
       </c>
     </row>
@@ -8778,7 +8713,7 @@
       <c r="C270" s="4">
         <v>98</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="11" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8792,7 +8727,7 @@
       <c r="C271" s="4">
         <v>18</v>
       </c>
-      <c r="D271" s="3"/>
+      <c r="D271" s="11"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
@@ -8804,7 +8739,7 @@
       <c r="C272" s="4">
         <v>19</v>
       </c>
-      <c r="D272" s="3"/>
+      <c r="D272" s="11"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
@@ -8816,7 +8751,7 @@
       <c r="C273" s="4">
         <v>20</v>
       </c>
-      <c r="D273" s="3"/>
+      <c r="D273" s="11"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
@@ -8828,7 +8763,7 @@
       <c r="C274" s="4">
         <v>99</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="11" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8842,7 +8777,7 @@
       <c r="C275" s="4">
         <v>56</v>
       </c>
-      <c r="D275" s="3"/>
+      <c r="D275" s="11"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
@@ -8854,7 +8789,7 @@
       <c r="C276" s="4">
         <v>75</v>
       </c>
-      <c r="D276" s="3"/>
+      <c r="D276" s="11"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
@@ -8866,7 +8801,7 @@
       <c r="C277" s="4">
         <v>100</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D277" s="11" t="s">
         <v>609</v>
       </c>
     </row>
@@ -8880,7 +8815,7 @@
       <c r="C278" s="4">
         <v>31</v>
       </c>
-      <c r="D278" s="3"/>
+      <c r="D278" s="11"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
@@ -8892,7 +8827,7 @@
       <c r="C279" s="4">
         <v>32</v>
       </c>
-      <c r="D279" s="3"/>
+      <c r="D279" s="11"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
@@ -8904,7 +8839,7 @@
       <c r="C280" s="4">
         <v>33</v>
       </c>
-      <c r="D280" s="3"/>
+      <c r="D280" s="11"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
@@ -8916,7 +8851,7 @@
       <c r="C281" s="4">
         <v>34</v>
       </c>
-      <c r="D281" s="3"/>
+      <c r="D281" s="11"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
@@ -8928,7 +8863,7 @@
       <c r="C282" s="4">
         <v>35</v>
       </c>
-      <c r="D282" s="3"/>
+      <c r="D282" s="11"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
@@ -8940,7 +8875,7 @@
       <c r="C283" s="4">
         <v>36</v>
       </c>
-      <c r="D283" s="3"/>
+      <c r="D283" s="11"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
@@ -8952,7 +8887,7 @@
       <c r="C284" s="4">
         <v>37</v>
       </c>
-      <c r="D284" s="3"/>
+      <c r="D284" s="11"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
@@ -8964,7 +8899,7 @@
       <c r="C285" s="4">
         <v>38</v>
       </c>
-      <c r="D285" s="3"/>
+      <c r="D285" s="11"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
@@ -8976,7 +8911,7 @@
       <c r="C286" s="4">
         <v>101</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" s="11" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8990,7 +8925,7 @@
       <c r="C287" s="4">
         <v>102</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="11" t="s">
         <v>617</v>
       </c>
     </row>
@@ -9004,7 +8939,7 @@
       <c r="C288" s="4">
         <v>56</v>
       </c>
-      <c r="D288" s="3"/>
+      <c r="D288" s="11"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
@@ -9016,7 +8951,7 @@
       <c r="C289" s="4">
         <v>103</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="11" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9030,7 +8965,7 @@
       <c r="C290" s="4">
         <v>91</v>
       </c>
-      <c r="D290" s="3"/>
+      <c r="D290" s="11"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
@@ -9042,7 +8977,7 @@
       <c r="C291" s="4">
         <v>104</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D291" s="11" t="s">
         <v>619</v>
       </c>
     </row>
@@ -9051,6 +8986,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="138" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23817,8 +23753,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId4" name="Control 8">
+        <control shapeId="1028" r:id="rId4" name="Control 4">
           <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId4" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId7" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>54</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>54</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId7" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId8" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>54</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>54</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId8" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId9" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId9" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId11" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>51</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId11" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId12" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>52</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId12" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId14" name="Control 8">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>52</xdr:col>
@@ -23828,56 +23939,6 @@
               </from>
               <to>
                 <xdr:col>52</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId4" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId6" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>54</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId6" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId8" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>51</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>51</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
@@ -23887,132 +23948,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId8" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId10" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>51</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>51</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId10" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId12" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>54</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>54</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId12" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId13" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>54</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>54</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId13" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId14" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>51</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>51</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId14" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId15" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>51</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>51</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId15" name="Control 4"/>
+        <control shapeId="1032" r:id="rId14" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
